--- a/Pandas/RELATORIO.xlsx
+++ b/Pandas/RELATORIO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>JAN</t>
   </si>
@@ -50,6 +50,273 @@
   </si>
   <si>
     <t>DEZ</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>486.0</t>
+  </si>
+  <si>
+    <t>642.0</t>
+  </si>
+  <si>
+    <t>485.0</t>
+  </si>
+  <si>
+    <t>348.0</t>
+  </si>
+  <si>
+    <t>440.0</t>
+  </si>
+  <si>
+    <t>552.0</t>
+  </si>
+  <si>
+    <t>333.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>475.0</t>
+  </si>
+  <si>
+    <t>434.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>515.0</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>184.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>581.0</t>
+  </si>
+  <si>
+    <t>540.0</t>
+  </si>
+  <si>
+    <t>750.0</t>
+  </si>
+  <si>
+    <t>415.0</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>1048.0</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>248.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>254.0</t>
+  </si>
+  <si>
+    <t>172.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>195.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>720.0</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>1001.0</t>
+  </si>
+  <si>
+    <t>715.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>408.0</t>
+  </si>
+  <si>
+    <t>274.0</t>
+  </si>
+  <si>
+    <t>396.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>870.0</t>
+  </si>
+  <si>
+    <t>645.0</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>512.0</t>
+  </si>
+  <si>
+    <t>1128.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>804.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>294.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>574.0</t>
+  </si>
+  <si>
+    <t>742.0</t>
+  </si>
+  <si>
+    <t>624.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>864.0</t>
+  </si>
+  <si>
+    <t>460.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>472.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>848.0</t>
+  </si>
+  <si>
+    <t>399.0</t>
+  </si>
+  <si>
+    <t>496.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>384.0</t>
+  </si>
+  <si>
+    <t>630.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>910.0</t>
+  </si>
+  <si>
+    <t>808.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>206.0</t>
+  </si>
+  <si>
+    <t>470.0</t>
+  </si>
+  <si>
+    <t>576.0</t>
   </si>
 </sst>
 </file>
@@ -443,348 +710,348 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>11</v>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>13</v>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>13</v>
-      </c>
-      <c r="I9">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>14</v>
-      </c>
-      <c r="I10">
-        <v>15</v>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
-      <c r="H11">
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <v>16</v>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="H12">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>17</v>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>17</v>
-      </c>
-      <c r="I13">
-        <v>18</v>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
